--- a/data/trans_orig/P6713-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9AAE16-E559-4A54-ADE3-030F70FCE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F41B73B-F2EE-4CEB-BF4B-029C7F5E38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B9478F-F46B-49BA-8151-63D45689E5B1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29FC5B77-40E1-46E6-816C-7BD1893738D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="513">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,28 +108,28 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -138,1447 +138,1444 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735A034B-3738-4D2F-AD01-AAF95053E613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A8FA8-EAA1-4B92-8043-CF3029B125EA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2545,7 +2542,7 @@
         <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2554,13 +2551,13 @@
         <v>67631</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2572,13 @@
         <v>49841</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -2590,13 +2587,13 @@
         <v>32645</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2605,13 +2602,13 @@
         <v>82486</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2623,13 @@
         <v>112344</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -2641,13 +2638,13 @@
         <v>57625</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -2656,13 +2653,13 @@
         <v>169968</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2715,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2730,13 +2727,13 @@
         <v>22146</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2745,13 +2742,13 @@
         <v>18224</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2760,13 +2757,13 @@
         <v>40371</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2778,13 @@
         <v>23323</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2796,13 +2793,13 @@
         <v>21574</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2811,13 +2808,13 @@
         <v>44897</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2829,13 @@
         <v>77533</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2847,13 +2844,13 @@
         <v>54423</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -2862,13 +2859,13 @@
         <v>131956</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2880,13 @@
         <v>94899</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2898,13 +2895,13 @@
         <v>57617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2913,13 +2910,13 @@
         <v>152516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2931,13 @@
         <v>190704</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2949,13 +2946,13 @@
         <v>117348</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2964,13 +2961,13 @@
         <v>308053</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,7 +3023,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3038,13 +3035,13 @@
         <v>13160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3053,13 +3050,13 @@
         <v>20939</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3068,13 +3065,13 @@
         <v>34098</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3086,13 @@
         <v>21428</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3104,13 +3101,13 @@
         <v>14470</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3119,13 +3116,13 @@
         <v>35898</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3137,13 @@
         <v>67224</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -3155,13 +3152,13 @@
         <v>42154</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3170,13 +3167,13 @@
         <v>109378</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3188,13 @@
         <v>52904</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3206,13 +3203,13 @@
         <v>33851</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3221,13 +3218,13 @@
         <v>86754</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3239,13 @@
         <v>165768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -3257,13 +3254,13 @@
         <v>101941</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -3272,13 +3269,13 @@
         <v>267708</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3331,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3343,13 @@
         <v>19455</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3361,13 +3358,13 @@
         <v>14245</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -3376,13 +3373,13 @@
         <v>33700</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3394,13 @@
         <v>16510</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3412,13 +3409,13 @@
         <v>18749</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3427,13 +3424,13 @@
         <v>35259</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3445,13 @@
         <v>95093</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3463,13 +3460,13 @@
         <v>66692</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -3478,10 +3475,10 @@
         <v>161785</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>213</v>
@@ -3517,10 +3514,10 @@
         <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>175</v>
@@ -3529,13 +3526,13 @@
         <v>178744</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3547,13 @@
         <v>170083</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>133</v>
@@ -3565,13 +3562,13 @@
         <v>137311</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>296</v>
@@ -3580,13 +3577,13 @@
         <v>307394</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3651,13 @@
         <v>58826</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -3669,13 +3666,13 @@
         <v>60240</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>110</v>
@@ -3684,13 +3681,13 @@
         <v>119067</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3702,13 @@
         <v>75679</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="H35" s="7">
         <v>57</v>
@@ -3720,13 +3717,13 @@
         <v>63767</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -3735,13 +3732,13 @@
         <v>139446</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3753,13 @@
         <v>288346</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -3771,13 +3768,13 @@
         <v>198680</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>457</v>
@@ -3786,13 +3783,13 @@
         <v>487026</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3804,13 @@
         <v>324840</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>181</v>
@@ -3822,13 +3819,13 @@
         <v>198719</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>493</v>
@@ -3837,13 +3834,13 @@
         <v>523559</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3855,13 @@
         <v>666760</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>394</v>
@@ -3873,13 +3870,13 @@
         <v>422865</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -3888,13 +3885,13 @@
         <v>1089625</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3947,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +3968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D8E0D-00C6-45B8-A2D0-6BA8456AA695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1522D0E8-44B4-4833-8721-251898B1E134}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,7 +3985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4095,13 +4092,13 @@
         <v>2041</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4110,13 +4107,13 @@
         <v>2034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4125,13 +4122,13 @@
         <v>4075</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4143,13 @@
         <v>1990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4161,7 +4158,7 @@
         <v>6859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>283</v>
@@ -4263,7 +4260,7 @@
         <v>6636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>300</v>
@@ -4403,7 +4400,7 @@
         <v>13446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>314</v>
@@ -4535,13 +4532,13 @@
         <v>78238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4553,13 @@
         <v>48278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4571,13 +4568,13 @@
         <v>41136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4586,13 +4583,13 @@
         <v>89414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4604,13 @@
         <v>57447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4625,10 +4622,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4637,13 +4634,13 @@
         <v>88861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4696,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4711,13 +4708,13 @@
         <v>15423</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4726,13 +4723,13 @@
         <v>22745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4741,13 +4738,13 @@
         <v>38168</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4759,13 @@
         <v>33657</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4777,13 +4774,13 @@
         <v>30851</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4792,13 +4789,13 @@
         <v>64508</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4810,13 @@
         <v>106888</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -4828,13 +4825,13 @@
         <v>60836</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>157</v>
@@ -4843,13 +4840,13 @@
         <v>167724</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4861,13 @@
         <v>120253</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -4879,13 +4876,13 @@
         <v>79784</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -4894,10 +4891,10 @@
         <v>200037</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>386</v>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5019,13 +5016,13 @@
         <v>24443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -5034,13 +5031,13 @@
         <v>17033</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5049,13 +5046,13 @@
         <v>41476</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5067,13 @@
         <v>40641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5085,13 +5082,13 @@
         <v>36527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5100,13 +5097,13 @@
         <v>77168</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5118,13 @@
         <v>116297</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -5136,13 +5133,13 @@
         <v>84967</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5151,13 +5148,13 @@
         <v>201264</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5169,13 @@
         <v>78311</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5187,13 +5184,13 @@
         <v>57486</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -5202,13 +5199,13 @@
         <v>135797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5220,13 @@
         <v>104128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5238,13 +5235,13 @@
         <v>74545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>73</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5253,13 +5250,13 @@
         <v>178673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5312,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5327,13 +5324,13 @@
         <v>26170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>26</v>
+        <v>435</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5342,13 +5339,13 @@
         <v>33313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -5357,13 +5354,13 @@
         <v>59482</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5375,13 @@
         <v>32621</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5393,13 +5390,13 @@
         <v>30680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -5408,13 +5405,13 @@
         <v>63301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5426,13 @@
         <v>74844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>276</v>
+        <v>450</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -5444,13 +5441,13 @@
         <v>51675</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -5459,13 +5456,13 @@
         <v>126519</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>458</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5477,13 @@
         <v>104152</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>87</v>
@@ -5495,13 +5492,13 @@
         <v>89501</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>191</v>
@@ -5510,13 +5507,13 @@
         <v>193654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5528,13 @@
         <v>163384</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -5546,13 +5543,13 @@
         <v>120305</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M32" s="7">
         <v>272</v>
@@ -5561,13 +5558,13 @@
         <v>283689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>476</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5632,13 @@
         <v>81523</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>275</v>
+        <v>474</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -5650,13 +5647,13 @@
         <v>90677</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M34" s="7">
         <v>161</v>
@@ -5665,13 +5662,13 @@
         <v>172200</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5683,13 @@
         <v>137436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>101</v>
+        <v>483</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H35" s="7">
         <v>129</v>
@@ -5701,13 +5698,13 @@
         <v>127625</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -5716,13 +5713,13 @@
         <v>265061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>490</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5734,13 @@
         <v>357915</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -5752,13 +5749,13 @@
         <v>230374</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>555</v>
@@ -5767,13 +5764,13 @@
         <v>588290</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5785,13 @@
         <v>363417</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>270</v>
@@ -5803,13 +5800,13 @@
         <v>274543</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M37" s="7">
         <v>613</v>
@@ -5818,13 +5815,13 @@
         <v>637961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>505</v>
+        <v>163</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>506</v>
+        <v>339</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5836,13 @@
         <v>482031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>340</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>301</v>
@@ -5854,13 +5851,13 @@
         <v>313952</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>433</v>
+        <v>214</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M38" s="7">
         <v>748</v>
@@ -5869,13 +5866,13 @@
         <v>795983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,7 +5928,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F41B73B-F2EE-4CEB-BF4B-029C7F5E38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285D3C2A-187A-4C6A-A234-6A8E6A42F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29FC5B77-40E1-46E6-816C-7BD1893738D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21331EC0-307F-43AB-B146-63DDB49039E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="511">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,88%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,28 +108,28 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -138,28 +138,28 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -168,1414 +168,1408 @@
     <t>53,86%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>12,31%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>31,39%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>33,24%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733A8FA8-EAA1-4B92-8043-CF3029B125EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EB6A06-7411-4D0A-8DCF-DD6778D846E5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2542,7 +2536,7 @@
         <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2551,13 +2545,13 @@
         <v>67631</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2566,13 @@
         <v>49841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -2587,13 +2581,13 @@
         <v>32645</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2602,13 +2596,13 @@
         <v>82486</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2617,13 @@
         <v>112344</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -2638,13 +2632,13 @@
         <v>57625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -2730,10 +2724,10 @@
         <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2742,13 +2736,13 @@
         <v>18224</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2757,13 +2751,13 @@
         <v>40371</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2772,13 @@
         <v>23323</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2793,13 +2787,13 @@
         <v>21574</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2808,13 +2802,13 @@
         <v>44897</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2823,13 @@
         <v>77533</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2844,13 +2838,13 @@
         <v>54423</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -2859,13 +2853,13 @@
         <v>131956</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2874,13 @@
         <v>94899</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2895,13 +2889,13 @@
         <v>57617</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2910,13 +2904,13 @@
         <v>152516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2925,13 @@
         <v>190704</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2946,13 +2940,13 @@
         <v>117348</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2961,7 +2955,7 @@
         <v>308053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>140</v>
@@ -3056,7 +3050,7 @@
         <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3065,13 +3059,13 @@
         <v>34098</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3080,13 @@
         <v>21428</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3101,13 +3095,13 @@
         <v>14470</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3116,13 +3110,13 @@
         <v>35898</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3131,13 @@
         <v>67224</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -3152,13 +3146,13 @@
         <v>42154</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3167,13 +3161,13 @@
         <v>109378</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3182,13 @@
         <v>52904</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3203,13 +3197,13 @@
         <v>33851</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3218,13 +3212,13 @@
         <v>86754</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3233,13 @@
         <v>165768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -3254,13 +3248,13 @@
         <v>101941</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -3269,13 +3263,13 @@
         <v>267708</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3325,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3337,13 @@
         <v>19455</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3358,13 +3352,13 @@
         <v>14245</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -3373,13 +3367,13 @@
         <v>33700</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3388,13 @@
         <v>16510</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3409,13 +3403,13 @@
         <v>18749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3424,13 +3418,13 @@
         <v>35259</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3439,13 @@
         <v>95093</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3460,13 +3454,13 @@
         <v>66692</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -3475,13 +3469,13 @@
         <v>161785</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3490,13 @@
         <v>115284</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -3511,13 +3505,13 @@
         <v>63460</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>175</v>
@@ -3526,13 +3520,13 @@
         <v>178744</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,10 +3544,10 @@
         <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>133</v>
@@ -3562,13 +3556,13 @@
         <v>137311</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>296</v>
@@ -3577,13 +3571,13 @@
         <v>307394</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3645,13 @@
         <v>58826</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -3666,13 +3660,13 @@
         <v>60240</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>110</v>
@@ -3681,13 +3675,13 @@
         <v>119067</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3696,13 @@
         <v>75679</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>57</v>
@@ -3717,13 +3711,13 @@
         <v>63767</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -3732,13 +3726,13 @@
         <v>139446</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3747,13 @@
         <v>288346</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -3768,13 +3762,13 @@
         <v>198680</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>457</v>
@@ -3783,13 +3777,13 @@
         <v>487026</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3798,13 @@
         <v>324840</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>181</v>
@@ -3819,13 +3813,13 @@
         <v>198719</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>493</v>
@@ -3834,13 +3828,13 @@
         <v>523559</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3849,13 @@
         <v>666760</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H38" s="7">
         <v>394</v>
@@ -3870,13 +3864,13 @@
         <v>422865</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -3885,13 +3879,13 @@
         <v>1089625</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3941,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3968,7 +3962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1522D0E8-44B4-4833-8721-251898B1E134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F8099-04A3-474B-8699-7EFC55C590FB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3985,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4092,13 +4086,13 @@
         <v>2041</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4107,13 +4101,13 @@
         <v>2034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4122,13 +4116,13 @@
         <v>4075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4137,13 @@
         <v>1990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4158,13 +4152,13 @@
         <v>6859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4173,13 +4167,13 @@
         <v>8849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4188,13 @@
         <v>8315</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4209,13 +4203,13 @@
         <v>6229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4224,13 +4218,13 @@
         <v>14544</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4239,13 @@
         <v>12423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4260,13 +4254,13 @@
         <v>6636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4275,13 +4269,13 @@
         <v>19059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4290,13 @@
         <v>19252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4311,13 +4305,13 @@
         <v>8133</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4326,13 +4320,13 @@
         <v>27385</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4394,13 @@
         <v>13446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4415,13 +4409,13 @@
         <v>15553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4430,13 +4424,13 @@
         <v>28999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4445,13 @@
         <v>28527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4466,13 +4460,13 @@
         <v>22708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4481,13 +4475,13 @@
         <v>51235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4496,13 @@
         <v>51570</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -4517,13 +4511,13 @@
         <v>26667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4532,13 +4526,13 @@
         <v>78238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4547,13 @@
         <v>48278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4568,13 +4562,13 @@
         <v>41136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4583,13 +4577,13 @@
         <v>89414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4598,13 @@
         <v>57447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4622,10 +4616,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4634,13 +4628,13 @@
         <v>88861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4702,13 @@
         <v>15423</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4723,13 +4717,13 @@
         <v>22745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4738,13 +4732,13 @@
         <v>38168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4753,13 @@
         <v>33657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4774,13 +4768,13 @@
         <v>30851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4789,13 +4783,13 @@
         <v>64508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4804,13 @@
         <v>106888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -4825,13 +4819,13 @@
         <v>60836</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>157</v>
@@ -4840,13 +4834,13 @@
         <v>167724</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4855,13 @@
         <v>120253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -4876,13 +4870,13 @@
         <v>79784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -4891,13 +4885,13 @@
         <v>200037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4906,13 @@
         <v>137820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4927,13 +4921,13 @@
         <v>79555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -4942,13 +4936,13 @@
         <v>217375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5010,13 @@
         <v>24443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -5031,13 +5025,13 @@
         <v>17033</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5046,13 +5040,13 @@
         <v>41476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5061,13 @@
         <v>40641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5082,13 +5076,13 @@
         <v>36527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5097,13 +5091,13 @@
         <v>77168</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5112,13 @@
         <v>116297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -5133,13 +5127,13 @@
         <v>84967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5148,13 +5142,13 @@
         <v>201264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5163,13 @@
         <v>78311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5184,13 +5178,13 @@
         <v>57486</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -5199,13 +5193,13 @@
         <v>135797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5214,13 @@
         <v>104128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5235,13 +5229,13 @@
         <v>74545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>73</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5250,13 +5244,13 @@
         <v>178673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5306,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5324,13 +5318,13 @@
         <v>26170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>435</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5339,13 +5333,13 @@
         <v>33313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -5354,13 +5348,13 @@
         <v>59482</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5369,13 @@
         <v>32621</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5390,13 +5384,13 @@
         <v>30680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -5405,13 +5399,13 @@
         <v>63301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5420,13 @@
         <v>74844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -5441,13 +5435,13 @@
         <v>51675</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -5456,13 +5450,13 @@
         <v>126519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5471,13 @@
         <v>104152</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H31" s="7">
         <v>87</v>
@@ -5492,13 +5486,13 @@
         <v>89501</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="M31" s="7">
         <v>191</v>
@@ -5507,13 +5501,13 @@
         <v>193654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5522,13 @@
         <v>163384</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -5543,13 +5537,13 @@
         <v>120305</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M32" s="7">
         <v>272</v>
@@ -5558,13 +5552,13 @@
         <v>283689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5626,13 @@
         <v>81523</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -5647,13 +5641,13 @@
         <v>90677</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M34" s="7">
         <v>161</v>
@@ -5662,13 +5656,13 @@
         <v>172200</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5677,13 @@
         <v>137436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>484</v>
+        <v>318</v>
       </c>
       <c r="H35" s="7">
         <v>129</v>
@@ -5698,13 +5692,13 @@
         <v>127625</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -5713,13 +5707,13 @@
         <v>265061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5728,13 @@
         <v>357915</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -5749,13 +5743,13 @@
         <v>230374</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>555</v>
@@ -5764,13 +5758,13 @@
         <v>588290</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5779,13 @@
         <v>363417</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>117</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H37" s="7">
         <v>270</v>
@@ -5800,13 +5794,13 @@
         <v>274543</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M37" s="7">
         <v>613</v>
@@ -5815,13 +5809,13 @@
         <v>637961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>163</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>339</v>
+        <v>502</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5830,13 @@
         <v>482031</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>301</v>
@@ -5851,13 +5845,13 @@
         <v>313952</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M38" s="7">
         <v>748</v>
@@ -5866,13 +5860,13 @@
         <v>795983</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,7 +5922,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285D3C2A-187A-4C6A-A234-6A8E6A42F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF13CC43-84AF-44E1-A025-72EA5AC823EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21331EC0-307F-43AB-B146-63DDB49039E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08C7B957-C293-44E6-AE28-BEB536D6867C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="514">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,8%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,1468 +108,1477 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>37,53%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EB6A06-7411-4D0A-8DCF-DD6778D846E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02804611-6E4D-41AC-80A6-301989CE9490}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2638,7 +2647,7 @@
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -2647,13 +2656,13 @@
         <v>169968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2718,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2721,13 +2730,13 @@
         <v>22146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -2736,13 +2745,13 @@
         <v>18224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -2751,13 +2760,13 @@
         <v>40371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2781,13 @@
         <v>23323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2787,13 +2796,13 @@
         <v>21574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -2802,13 +2811,13 @@
         <v>44897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2832,13 @@
         <v>77533</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -2838,13 +2847,13 @@
         <v>54423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -2853,13 +2862,13 @@
         <v>131956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2883,13 @@
         <v>94899</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2889,13 +2898,13 @@
         <v>57617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -2904,13 +2913,13 @@
         <v>152516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2934,13 @@
         <v>190704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -2940,13 +2949,13 @@
         <v>117348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>282</v>
@@ -2955,13 +2964,13 @@
         <v>308053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3029,13 +3038,13 @@
         <v>13160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3044,13 +3053,13 @@
         <v>20939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3059,13 +3068,13 @@
         <v>34098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3089,13 @@
         <v>21428</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3095,13 +3104,13 @@
         <v>14470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3110,13 +3119,13 @@
         <v>35898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3140,13 @@
         <v>67224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -3146,13 +3155,13 @@
         <v>42154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -3161,13 +3170,13 @@
         <v>109378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3191,13 @@
         <v>52904</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3197,13 +3206,13 @@
         <v>33851</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -3212,13 +3221,13 @@
         <v>86754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,10 +3245,10 @@
         <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -3248,13 +3257,13 @@
         <v>101941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -3263,13 +3272,13 @@
         <v>267708</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,7 +3334,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3337,13 +3346,13 @@
         <v>19455</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3352,13 +3361,13 @@
         <v>14245</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -3367,13 +3376,13 @@
         <v>33700</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3397,13 @@
         <v>16510</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3403,13 +3412,13 @@
         <v>18749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3418,13 +3427,13 @@
         <v>35259</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3448,13 @@
         <v>95093</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -3454,13 +3463,13 @@
         <v>66692</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -3469,13 +3478,13 @@
         <v>161785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3499,13 @@
         <v>115284</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -3505,13 +3514,13 @@
         <v>63460</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>175</v>
@@ -3520,13 +3529,13 @@
         <v>178744</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3550,13 @@
         <v>170083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>133</v>
@@ -3556,13 +3565,13 @@
         <v>137311</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>296</v>
@@ -3571,13 +3580,13 @@
         <v>307394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3654,13 @@
         <v>58826</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -3660,13 +3669,13 @@
         <v>60240</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>110</v>
@@ -3675,13 +3684,13 @@
         <v>119067</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3705,13 @@
         <v>75679</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>57</v>
@@ -3711,13 +3720,13 @@
         <v>63767</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -3726,13 +3735,13 @@
         <v>139446</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3756,13 @@
         <v>288346</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>184</v>
@@ -3762,13 +3771,13 @@
         <v>198680</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>457</v>
@@ -3777,13 +3786,13 @@
         <v>487026</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3807,13 @@
         <v>324840</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>181</v>
@@ -3813,13 +3822,13 @@
         <v>198719</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>493</v>
@@ -3828,13 +3837,13 @@
         <v>523559</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3858,13 @@
         <v>666760</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>394</v>
@@ -3864,13 +3873,13 @@
         <v>422865</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -3879,13 +3888,13 @@
         <v>1089625</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3950,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3962,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F8099-04A3-474B-8699-7EFC55C590FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D746A3B1-C4C0-4109-A235-775059F00AB4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3979,7 +3988,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4086,13 +4095,13 @@
         <v>2041</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4101,13 +4110,13 @@
         <v>2034</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4116,13 +4125,13 @@
         <v>4075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4146,13 @@
         <v>1990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4155,10 +4164,10 @@
         <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4167,13 +4176,13 @@
         <v>8849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4197,13 @@
         <v>8315</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4203,13 +4212,13 @@
         <v>6229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4218,13 +4227,13 @@
         <v>14544</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4248,13 @@
         <v>12423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4254,13 +4263,13 @@
         <v>6636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4269,13 +4278,13 @@
         <v>19059</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4299,13 @@
         <v>19252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4305,13 +4314,13 @@
         <v>8133</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -4320,13 +4329,13 @@
         <v>27385</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4403,13 @@
         <v>13446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4409,13 +4418,13 @@
         <v>15553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -4424,13 +4433,13 @@
         <v>28999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4454,13 @@
         <v>28527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4460,13 +4469,13 @@
         <v>22708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4475,13 +4484,13 @@
         <v>51235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4505,13 @@
         <v>51570</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -4511,13 +4520,13 @@
         <v>26667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -4526,13 +4535,13 @@
         <v>78238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4556,13 @@
         <v>48278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -4562,13 +4571,13 @@
         <v>41136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4577,13 +4586,13 @@
         <v>89414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4607,13 @@
         <v>57447</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4616,10 +4625,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4628,13 +4637,13 @@
         <v>88861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4699,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4702,13 +4711,13 @@
         <v>15423</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4717,13 +4726,13 @@
         <v>22745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -4732,13 +4741,13 @@
         <v>38168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4762,13 @@
         <v>33657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -4768,13 +4777,13 @@
         <v>30851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4783,13 +4792,13 @@
         <v>64508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4813,13 @@
         <v>106888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -4819,13 +4828,13 @@
         <v>60836</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>157</v>
@@ -4834,13 +4843,13 @@
         <v>167724</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4864,13 @@
         <v>120253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -4870,13 +4879,13 @@
         <v>79784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -4885,13 +4894,13 @@
         <v>200037</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4915,13 @@
         <v>137820</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4921,13 +4930,13 @@
         <v>79555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>198</v>
@@ -4936,13 +4945,13 @@
         <v>217375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,7 +5007,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5010,13 +5019,13 @@
         <v>24443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -5025,13 +5034,13 @@
         <v>17033</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5040,13 +5049,13 @@
         <v>41476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5070,13 @@
         <v>40641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5076,13 +5085,13 @@
         <v>36527</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5091,13 +5100,13 @@
         <v>77168</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5121,13 @@
         <v>116297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -5127,13 +5136,13 @@
         <v>84967</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5142,13 +5151,13 @@
         <v>201264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5172,13 @@
         <v>78311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5178,13 +5187,13 @@
         <v>57486</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>130</v>
@@ -5193,13 +5202,13 @@
         <v>135797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5223,13 @@
         <v>104128</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -5229,13 +5238,13 @@
         <v>74545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5244,13 +5253,13 @@
         <v>178673</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5315,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5318,13 +5327,13 @@
         <v>26170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5333,13 +5342,13 @@
         <v>33313</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>56</v>
@@ -5348,13 +5357,13 @@
         <v>59482</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>437</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5378,13 @@
         <v>32621</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5384,13 +5393,13 @@
         <v>30680</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -5399,13 +5408,13 @@
         <v>63301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5429,13 @@
         <v>74844</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>276</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>453</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -5435,13 +5444,13 @@
         <v>51675</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>309</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>455</v>
       </c>
       <c r="M30" s="7">
         <v>120</v>
@@ -5450,13 +5459,13 @@
         <v>126519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5480,13 @@
         <v>104152</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H31" s="7">
         <v>87</v>
@@ -5486,13 +5495,13 @@
         <v>89501</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M31" s="7">
         <v>191</v>
@@ -5501,13 +5510,13 @@
         <v>193654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5531,13 @@
         <v>163384</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -5537,13 +5546,13 @@
         <v>120305</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>272</v>
@@ -5552,13 +5561,13 @@
         <v>283689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5635,13 @@
         <v>81523</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>471</v>
+        <v>275</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -5641,13 +5650,13 @@
         <v>90677</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>161</v>
@@ -5656,13 +5665,13 @@
         <v>172200</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5686,13 @@
         <v>137436</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>479</v>
+        <v>323</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>480</v>
+        <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>129</v>
@@ -5692,13 +5701,13 @@
         <v>127625</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>259</v>
@@ -5707,13 +5716,13 @@
         <v>265061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5737,13 @@
         <v>357915</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -5743,13 +5752,13 @@
         <v>230374</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>491</v>
+        <v>165</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>555</v>
@@ -5758,13 +5767,13 @@
         <v>588290</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5788,13 @@
         <v>363417</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>500</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>270</v>
@@ -5794,13 +5803,13 @@
         <v>274543</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M37" s="7">
         <v>613</v>
@@ -5809,13 +5818,13 @@
         <v>637961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5839,13 @@
         <v>482031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>505</v>
+        <v>340</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>301</v>
@@ -5845,13 +5854,13 @@
         <v>313952</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>332</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M38" s="7">
         <v>748</v>
@@ -5860,13 +5869,13 @@
         <v>795983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>508</v>
+        <v>85</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5931,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
